--- a/biology/Histoire de la zoologie et de la botanique/Antonio_Carestia/Antonio_Carestia.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antonio_Carestia/Antonio_Carestia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abbé Antonio Carestia, né en 1825 à Riva Valdobbia et mort dans la même ville en 1908, est un abbé italien, aumônier du village de Riva Valdobbia et botaniste.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Riva Valdobbia en 1825, Antonio Carestia a vécu la majorité de sa vie dans la Valsesia, vallée alpine du Piémont, où il a aussi effectué ses recherches botaniques, au pied du mont Rose. Cette passion pour la botanique lui est probablement venue de son père chirurgien, qui a étudié ce même domaine à l'Université de Grenoble. Il est entré au séminaire de Novare pour y faire des études ecclésiastiques avant de retourner dans son village natal pour y occuper le poste d'aumônier. Après qu'il a écrit l'ouvrage Monographie de la corne blanche, en 1869, il a été invité comme membre honoraire du Club alpin italien[1].
-Il a étudié les cryptogames en particulier, mais a aussi traité en surface les phanérogames. Il a étudié de nombreuses plantes cryptogamiques anciennes et en a découvert plusieurs espèces, complétant un herbier composé de quelque 25 000 espèces, dont 600 nouvelles espèces de lichens. Après sa mort, la municipalité de Riva Valdobbia a reçu ses collections (son herbier et ceux échangés de collègues en échange de collaboration), mais les a vendues à l'Herbarium Universitatis Taurinensis en 1910, par un legs en argent du Dr. Fedele Bruno, assistant au jardin botanique. le musée Calderini des sciences naturelles de Varallo Sesia a également reçu une partie de sa collection en obtenant un ensemble de 740 feuilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Riva Valdobbia en 1825, Antonio Carestia a vécu la majorité de sa vie dans la Valsesia, vallée alpine du Piémont, où il a aussi effectué ses recherches botaniques, au pied du mont Rose. Cette passion pour la botanique lui est probablement venue de son père chirurgien, qui a étudié ce même domaine à l'Université de Grenoble. Il est entré au séminaire de Novare pour y faire des études ecclésiastiques avant de retourner dans son village natal pour y occuper le poste d'aumônier. Après qu'il a écrit l'ouvrage Monographie de la corne blanche, en 1869, il a été invité comme membre honoraire du Club alpin italien.
+Il a étudié les cryptogames en particulier, mais a aussi traité en surface les phanérogames. Il a étudié de nombreuses plantes cryptogamiques anciennes et en a découvert plusieurs espèces, complétant un herbier composé de quelque 25 000 espèces, dont 600 nouvelles espèces de lichens. Après sa mort, la municipalité de Riva Valdobbia a reçu ses collections (son herbier et ceux échangés de collègues en échange de collaboration), mais les a vendues à l'Herbarium Universitatis Taurinensis en 1910, par un legs en argent du Dr. Fedele Bruno, assistant au jardin botanique. le musée Calderini des sciences naturelles de Varallo Sesia a également reçu une partie de sa collection en obtenant un ensemble de 740 feuilles.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le refuge Carestia du CAI à Varallo Sesia dans le Val Rogna a été nommé en son honneur, ainsi que la Punta Carestia, une montagne de 2 979 m entre le Valsesia et la vallée du Lys[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge Carestia du CAI à Varallo Sesia dans le Val Rogna a été nommé en son honneur, ainsi que la Punta Carestia, une montagne de 2 979 m entre le Valsesia et la vallée du Lys.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lichens</t>
         </is>
